--- a/data/compare-3way.xlsx
+++ b/data/compare-3way.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugarl/PycharmProjects/data_final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF98B54-0B85-1C4E-9122-98D77B7AA37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCD9092-88DE-D547-9C46-5D7FF25DBFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="740" windowWidth="28300" windowHeight="17240" xr2:uid="{0DFFC787-FE6B-A745-8679-B0B3D8585F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$3:$A$5</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$3:$B$5</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$C$2</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$3:$C$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>xgboost</t>
     <phoneticPr fontId="1"/>
@@ -52,12 +59,47 @@
     <t>hold-out(default)，defaultモデル</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vali</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-fold(default)，defaultモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accuracy（平均）</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヘイキン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hold-out，5-fold(default)*5seed， </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>average Accuracy 25sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +114,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3C4A4A"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,9 +145,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -115,6 +173,1013 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>5-Fold</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>で分割し，</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>seed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>値を</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>つ変化させた場合の</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>各モデルでの正答率の標準偏差</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>xgboost</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>lightgbm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>catboost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.5429267116004701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.70055964734755E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9061002054140699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB4A-CA4B-A1E9-FF2FC32E8BA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1111768063"/>
+        <c:axId val="547976080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1111768063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547976080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547976080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>std</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1111768063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2393950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B2DF6F-54DE-49F9-ED37-682E41AF526D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,39 +1479,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60B6FD7-0A4B-594B-9141-1FA62A37C8F9}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.3804476</v>
+      </c>
+      <c r="C3">
+        <v>0.40710000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.16503310203552199</v>
+      </c>
+      <c r="E3">
+        <v>0.38654867256637099</v>
+      </c>
+      <c r="F3">
+        <v>1.9889619788057099E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.40823529411764697</v>
+      </c>
+      <c r="H3">
+        <v>1.5429267116004701E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" ht="22">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.37809189999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.38819999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.76865887641906705</v>
+      </c>
+      <c r="E4">
+        <v>0.38891549540170001</v>
+      </c>
+      <c r="F4">
+        <v>7.5808002276378803E-3</v>
+      </c>
+      <c r="G4">
+        <v>0.39517647058823502</v>
+      </c>
+      <c r="H4">
+        <v>1.70055964734755E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.42991760000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="D5">
+        <v>4.3852858543395996</v>
+      </c>
+      <c r="E5">
+        <v>0.39870440000000001</v>
+      </c>
+      <c r="F5">
+        <v>2.4158858011559699E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.42517647058823499</v>
+      </c>
+      <c r="H5">
+        <v>1.9061002054140699E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/compare-3way.xlsx
+++ b/data/compare-3way.xlsx
@@ -8,20 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugarl/PycharmProjects/data_final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCD9092-88DE-D547-9C46-5D7FF25DBFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F24D14E-35F1-194C-8BB0-B58940C34722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="740" windowWidth="28300" windowHeight="17240" xr2:uid="{0DFFC787-FE6B-A745-8679-B0B3D8585F3D}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{0DFFC787-FE6B-A745-8679-B0B3D8585F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$3:$A$5</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$3:$B$5</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$3:$C$5</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>xgboost</t>
     <phoneticPr fontId="1"/>
@@ -92,6 +86,67 @@
   </si>
   <si>
     <t>average Accuracy 25sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>acc_mean</t>
+  </si>
+  <si>
+    <t>acc_mean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>Action_latency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NumberOfPACs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssignToHotkeys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APM*NumberOfPACs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SelectByHotkeys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GapbeweenPCAs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ActionLatency + SelectByHotkeys</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TotalHour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HourPerWeek</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -99,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +176,19 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,6 +224,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1481,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60B6FD7-0A4B-594B-9141-1FA62A37C8F9}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -1619,4 +1696,235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA921B1D-DFC0-9F41-8F4B-438158648805}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>0.42352941176470499</v>
+      </c>
+      <c r="C3">
+        <v>1.82637349367764E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.47647058823529398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0.43011764705882299</v>
+      </c>
+      <c r="F4">
+        <v>1.6392250679907901E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.46764705882352903</v>
+      </c>
+      <c r="H4">
+        <v>0.42999999999999899</v>
+      </c>
+      <c r="I4">
+        <v>1.8320484120467499E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.47058823529411697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>0.433647058823529</v>
+      </c>
+      <c r="F5">
+        <v>1.9368579413888601E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.47352941176470498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>0.42764705882352899</v>
+      </c>
+      <c r="F6">
+        <v>1.6087993330796801E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.46764705882352903</v>
+      </c>
+      <c r="H6">
+        <v>0.42647058823529399</v>
+      </c>
+      <c r="I6">
+        <v>1.85457444358052E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.46176470588235202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>0.434941176470588</v>
+      </c>
+      <c r="F7">
+        <v>1.6871589108057999E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.46764705882352903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>0.433176470588235</v>
+      </c>
+      <c r="I8">
+        <v>2.0215448544654901E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.47647058823529398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>0.43058823529411699</v>
+      </c>
+      <c r="I9">
+        <v>2.5163823101420499E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.47941176470588198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>0.43047058823529399</v>
+      </c>
+      <c r="I10">
+        <v>1.9701579863933401E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.47647058823529398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>0.44258823529411701</v>
+      </c>
+      <c r="L11">
+        <v>2.0208600724755599E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.48823529411764699</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>